--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1884258.226806095</v>
+        <v>-1860060.694027284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11162318.03187418</v>
+        <v>11189646.60651801</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>301.008875047938</v>
+        <v>36.97389127840524</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>69.96003648939552</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>18.5926601865898</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>143.6283995710604</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>230.6653692446177</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>319.2352240959582</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>295.7372906054831</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1057,19 +1057,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>66.88336608586123</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>2.622218713801296</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>361.0423675600758</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>238.2276746667559</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>168.1521385862049</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773023</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V11" t="n">
-        <v>199.2705875349251</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>16.9257490316895</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225436</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>191.5730642936994</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629702</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,13 +2062,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2321,7 +2321,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>97.20690742198926</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>408.6672993996527</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112162</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432363</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>4.967932742934465</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>141.4132446762356</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3478,7 +3478,7 @@
         <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006781</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V37" t="n">
         <v>267.8502427095265</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169458</v>
       </c>
       <c r="U38" t="n">
         <v>240.3943693174059</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.823089387005</v>
+        <v>1252.10339476057</v>
       </c>
       <c r="C2" t="n">
-        <v>837.2414151242729</v>
+        <v>1218.001325984397</v>
       </c>
       <c r="D2" t="n">
-        <v>837.2414151242729</v>
+        <v>789.4196517216658</v>
       </c>
       <c r="E2" t="n">
-        <v>408.6597408615412</v>
+        <v>360.8379774589341</v>
       </c>
       <c r="F2" t="n">
-        <v>104.6103721262503</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>104.6103721262503</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.402965245478</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1678.402965245478</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.368379531855</v>
+        <v>1678.402965245478</v>
       </c>
       <c r="Y2" t="n">
-        <v>1692.122659871912</v>
+        <v>1678.402965245478</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.3109006987404</v>
+        <v>777.6525504900546</v>
       </c>
       <c r="C4" t="n">
-        <v>520.3109006987404</v>
+        <v>605.0908389732796</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00315850392299</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>341.7616130750586</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1552.104238594498</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>1265.148730464928</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W4" t="n">
-        <v>993.1223260512197</v>
+        <v>1196.890839894934</v>
       </c>
       <c r="X4" t="n">
-        <v>747.7305713846322</v>
+        <v>1196.890839894934</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.3109006987404</v>
+        <v>969.4711692090418</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>458.9995543026557</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>136.539731983506</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>104.6703511983546</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.93601039705382</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>574.8490166666552</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1207.322704144142</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580223</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233328</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233328</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.382015206319</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2076.159712523336</v>
       </c>
       <c r="V5" t="n">
-        <v>1398.458894115283</v>
+        <v>1713.542762457162</v>
       </c>
       <c r="W5" t="n">
-        <v>993.603439526316</v>
+        <v>1308.687307868195</v>
       </c>
       <c r="X5" t="n">
-        <v>574.4609761056267</v>
+        <v>889.5448444475061</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.2152564456842</v>
+        <v>885.2991247875635</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379583</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.8242686746007</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.7339798211539</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481076</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>178.2297267642692</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.84463703045313</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.1726580071232</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325474</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773857</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104427</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996207</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385007</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.9988294021812</v>
+        <v>626.8656485534648</v>
       </c>
       <c r="C7" t="n">
-        <v>339.4371178854062</v>
+        <v>454.3039370366897</v>
       </c>
       <c r="D7" t="n">
-        <v>339.4371178854062</v>
+        <v>288.4259442382124</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>118.6679404889497</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.8674394178012</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>744.0773211857622</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233328</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2534.031421038652</v>
       </c>
       <c r="S7" t="n">
-        <v>1694.534724308901</v>
+        <v>2374.790052336649</v>
       </c>
       <c r="T7" t="n">
-        <v>1448.655277887356</v>
+        <v>2128.910605915104</v>
       </c>
       <c r="U7" t="n">
-        <v>1448.655277887356</v>
+        <v>1850.477605168209</v>
       </c>
       <c r="V7" t="n">
-        <v>1448.655277887356</v>
+        <v>1563.52209703864</v>
       </c>
       <c r="W7" t="n">
-        <v>1176.628873473648</v>
+        <v>1291.495692624931</v>
       </c>
       <c r="X7" t="n">
-        <v>931.2371188070601</v>
+        <v>1046.103937958344</v>
       </c>
       <c r="Y7" t="n">
-        <v>703.8174481211684</v>
+        <v>818.684267272452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.0636759001416</v>
+        <v>1880.724249858583</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1846.62218108241</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L8" t="n">
-        <v>1294.102365436318</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>1294.102365436318</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.3228423446453</v>
+        <v>1902.983416303087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>851.8941960123195</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>679.3324844955445</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>513.4544916970672</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>343.6964879478044</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>538.7332355342593</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1516.524240083786</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1516.524240083786</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1516.524240083786</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1271.132485417198</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1043.712814731307</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1669.079523552045</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>1230.937050735468</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.937050735468</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>797.162305893763</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>369.2948763029707</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029707</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618698</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618698</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991048</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2341.808132766347</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2341.808132766347</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>2341.808132766347</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517358</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350754</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309349</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309349</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309349</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T11" t="n">
-        <v>3788.168860182388</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U11" t="n">
-        <v>3528.946557499405</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V11" t="n">
-        <v>3327.663135746955</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W11" t="n">
-        <v>2922.807681157988</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X11" t="n">
-        <v>2503.665217737299</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2095.379094036952</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618698</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066446</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.6607588231182</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0990473063431</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2210545078658</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4630507586031</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203593</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618698</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618698</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618698</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820125</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499735</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.272715437863</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.317207308293</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.290802894585</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.899048227997</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.479377542105</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5264,64 +5264,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5455,31 +5455,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1533.485159127727</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1288.093404461139</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771612</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3738.233352746991</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5899,19 +5899,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,22 +5932,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
         <v>1371.99516675259</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,46 +5993,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>692.1480610180166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>526.2700682195393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>356.5120644702766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6233,43 +6233,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6470,43 +6470,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2427.792782119709</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2006.050016716008</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1586.539939303329</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1169.1649018745</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>757.6971796965843</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004236</v>
+        <v>372.6990557327243</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2474.28803732548</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2474.28803732548</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3454.467703895787</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4282.777578729182</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>4998.430429440834</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>4914.778555624671</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4694.711328497709</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4435.489025814726</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4072.872075748553</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3668.016621159586</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3248.874157738897</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2840.58803403855</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167517</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.593603563305</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902587</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064203</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>424.526933555029</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>1105.260453625406</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.260453625406</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.260453625406</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.260453625406</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.260453625406</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310565</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>908.0668132066662</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>758.588527821065</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>605.2302314846784</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>444.9228848593108</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>295.7313172980146</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832277</v>
+        <v>172.2288504012652</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>202.6216469888664</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.7366897986828</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2205.842236860929</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143403</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
         <v>1584.13803439033</v>
@@ -6944,25 +6944,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832299</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F37" t="n">
         <v>442.520979946312</v>
@@ -7111,13 +7111,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7157,19 +7157,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,25 +7181,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
         <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7366,7 +7366,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
         <v>1677.257834230404</v>
@@ -7388,25 +7388,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7433,28 +7433,28 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080665</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7564,55 +7564,55 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
         <v>1166.762996961502</v>
@@ -7640,40 +7640,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>540.3167323207282</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1615.376698573588</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428596</v>
+        <v>2772.424533784138</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>3898.155517220585</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7849,7 +7849,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.39342414375217</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>89.37913572431478</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256234</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>143.8920278917549</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,16 +8532,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8611,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>225.3346227128309</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827337</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>294.5649431828397</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049986</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>314.270606305</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,7 +9881,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -9957,7 +9957,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03656536949893052</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.95402330576599</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10431,19 +10431,19 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>122.5798802469463</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>340.3981203789219</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>159.7201930305866</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627289</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>77.73307607587202</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>73.62918697961805</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>875390.8184204383</v>
+        <v>730343.6501535792</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>954375.4699811527</v>
+        <v>969778.6538120835</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>954375.4699811527</v>
+        <v>971835.5728618869</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829448.3444778104</v>
+        <v>989730.005291469</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>989730.0052914694</v>
+        <v>989730.005291469</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>989730.0052914692</v>
+        <v>989730.005291469</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1005522.556071665</v>
+        <v>1003942.143365445</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24484.28800744059</v>
+        <v>20218.1948231212</v>
       </c>
       <c r="C2" t="n">
+        <v>26807.36599452043</v>
+      </c>
+      <c r="D2" t="n">
         <v>26807.36599452042</v>
       </c>
-      <c r="D2" t="n">
-        <v>26807.36599452041</v>
-      </c>
       <c r="E2" t="n">
-        <v>22076.78602254823</v>
+        <v>26342.87920686761</v>
       </c>
       <c r="F2" t="n">
         <v>26342.87920686762</v>
@@ -26341,13 +26341,13 @@
         <v>26342.87920686762</v>
       </c>
       <c r="L2" t="n">
-        <v>26807.36599452044</v>
+        <v>26807.36599452039</v>
       </c>
       <c r="M2" t="n">
         <v>26807.36599452043</v>
       </c>
       <c r="N2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452041</v>
       </c>
       <c r="O2" t="n">
         <v>26807.36599452043</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118371992</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101893</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725251</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471779</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197371</v>
       </c>
       <c r="L3" t="n">
         <v>12988.5682709979</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978841</v>
+        <v>144718.1170387508</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341113</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571705</v>
+        <v>136875.4802388639</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>178390.1777075792</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726684</v>
+        <v>94878.44464875277</v>
       </c>
       <c r="F4" t="n">
+        <v>94878.44464875277</v>
+      </c>
+      <c r="G4" t="n">
+        <v>94878.4446487528</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="I4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="G4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.44464875285</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875291</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653861</v>
+        <v>103678.8250359888</v>
       </c>
       <c r="M4" t="n">
         <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="O4" t="n">
         <v>107302.2988178706</v>
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346586</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710211</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="J5" t="n">
-        <v>77718.2386057925</v>
-      </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>77341.06245996883</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="O5" t="n">
         <v>75515.61472608971</v>
       </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
-      </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362706.1916466621</v>
+        <v>-318602.8327712449</v>
       </c>
       <c r="C6" t="n">
-        <v>-244710.5415799199</v>
+        <v>-293373.3713802446</v>
       </c>
       <c r="D6" t="n">
-        <v>-244710.5415799198</v>
+        <v>-230195.1429257822</v>
       </c>
       <c r="E6" t="n">
-        <v>-290869.1433143458</v>
+        <v>-328632.1376081101</v>
       </c>
       <c r="F6" t="n">
-        <v>-225392.7097523955</v>
+        <v>-146277.0283870603</v>
       </c>
       <c r="G6" t="n">
-        <v>-146253.8040476778</v>
+        <v>-146277.0283870603</v>
       </c>
       <c r="H6" t="n">
-        <v>-146253.8040476778</v>
+        <v>-146277.0283870604</v>
       </c>
       <c r="I6" t="n">
-        <v>-146253.8040476778</v>
+        <v>-146277.0283870604</v>
       </c>
       <c r="J6" t="n">
-        <v>-257268.2693926679</v>
+        <v>-257291.4937320506</v>
       </c>
       <c r="K6" t="n">
-        <v>-146253.8040476778</v>
+        <v>-201499.5672790341</v>
       </c>
       <c r="L6" t="n">
-        <v>-165485.1632801243</v>
+        <v>-167201.0897724351</v>
       </c>
       <c r="M6" t="n">
-        <v>-285368.968947324</v>
+        <v>-300728.6645881906</v>
       </c>
       <c r="N6" t="n">
-        <v>-223659.7478228509</v>
+        <v>-156010.5475494398</v>
       </c>
       <c r="O6" t="n">
-        <v>-156010.5475494399</v>
+        <v>-156010.5475494398</v>
       </c>
       <c r="P6" t="n">
         <v>-156010.5475494398</v>
@@ -26722,10 +26722,10 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360208</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632157</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453689</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072331</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574076</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632157</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702112</v>
+        <v>580.7214853644034</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574074</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632157</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453689</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072331</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574076</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>386.6148640164791</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>216.2788165218204</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>132.0202711683653</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>38.64077112495366</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>114.5258239924527</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27667,13 +27667,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>63.25348996002862</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>108.0566174120001</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>155.026736301182</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>193.323012310544</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.787844911656464</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.869293354672282e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28384,16 +28384,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-3.759314748772922e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.472343578841375e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.671097134934407e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>13.36927538040601</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874597</v>
       </c>
       <c r="U38" t="n">
         <v>16.23571033874737</v>
@@ -30402,7 +30402,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
         <v>16.23571033874737</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34778,16 +34778,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34854,19 +34854,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.39342414375217</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>58.38468441396117</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>89.37913572431478</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256234</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>143.8920278917549</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,16 +35252,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>225.3346227128309</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827337</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>294.5649431828397</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>661.3192390158824</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35823,7 +35823,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049986</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
         <v>661.3192390158824</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>314.270606305</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,7 +36197,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,7 +36601,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03656536949893052</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36838,7 +36838,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,16 +37069,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.95402330576599</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37233,7 +37233,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778284</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348443</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,7 +38187,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
